--- a/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>GEHC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4938000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4576000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8827000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4589000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4304000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8692000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2816000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3006000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2803000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5353000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2727000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2538000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5146000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1891000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1932000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1773000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3474000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1862000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1766000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3546000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +824,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E12" s="3">
         <v>271000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>260000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>495000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>225000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>391000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4161000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3971000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7687000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3862000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3652000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7276000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E18" s="3">
         <v>777000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>605000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1140000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>727000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>652000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1416000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1041,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>123000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>48000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>34000</v>
       </c>
       <c r="H20" s="3">
         <v>34000</v>
       </c>
       <c r="I20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E21" s="3">
         <v>934000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>784000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1504000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>915000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>841000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1784000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E23" s="3">
         <v>718000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>622000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1172000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>755000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>676000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1444000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E24" s="3">
         <v>151000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>128000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>284000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>179000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>160000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>261000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E26" s="3">
         <v>567000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>494000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>888000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>576000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>516000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1183000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E27" s="3">
         <v>548000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>488000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>862000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>564000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>503000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1162000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,37 +1327,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>6000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>12000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>11000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>7000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-123000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-48000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-34000</v>
       </c>
       <c r="H32" s="3">
         <v>-34000</v>
       </c>
       <c r="I32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E33" s="3">
         <v>554000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>488000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>874000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>564000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>514000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1169000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E35" s="3">
         <v>554000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>488000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>874000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>564000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>514000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1169000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1618,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2327000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1445000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>525000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,23 +1680,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4387000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4301000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3990000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4141000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,23 +1712,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2155000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2200000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2237000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,23 +1744,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E45" s="3">
         <v>417000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>588000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>505000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1776,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9604000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8318000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7278000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7408000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1840,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2327000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2314000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2080000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2161000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,23 +1872,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14418000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14333000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14365000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14520000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +1968,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6288000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2574000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2344000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2375000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2032,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32637000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27539000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26067000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26464000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2094,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2977000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2944000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2687000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2702000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,23 +2124,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2156,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5254000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3936000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3985000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2188,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8236000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7191000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6635000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6693000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,23 +2220,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10234000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8234000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2252,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7270000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2522000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2325000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2467000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2380,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25947000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18182000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9208000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9433000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2554,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11235000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18801000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18680000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2682,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6690000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9357000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16859000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17031000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E81" s="3">
         <v>554000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>488000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>874000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>564000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>514000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1169000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2642,28 +2841,31 @@
         <v>157000</v>
       </c>
       <c r="E83" s="3">
+        <v>157000</v>
+      </c>
+      <c r="F83" s="3">
         <v>160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>316000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>154000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>155000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>316000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1042000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>622000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>449000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>578000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1040000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-77000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-159000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-72000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-60000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-110000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-95000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-185000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1532000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-145000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3337,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-505000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-280000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1401000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-585000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1079000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>37000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E102" s="3">
         <v>947000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-153000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-103000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-195000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>GEHC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,168 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4817000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4707000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4938000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4576000</v>
       </c>
-      <c r="G8" s="3">
-        <v>8827000</v>
-      </c>
       <c r="H8" s="3">
+        <v>4484000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4343000</v>
+      </c>
+      <c r="J8" s="3">
         <v>4589000</v>
       </c>
-      <c r="I8" s="3">
-        <v>4304000</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8692000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2877000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2816000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3006000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2803000</v>
       </c>
-      <c r="G9" s="3">
-        <v>5353000</v>
-      </c>
       <c r="H9" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2665000</v>
+      </c>
+      <c r="J9" s="3">
         <v>2727000</v>
       </c>
-      <c r="I9" s="3">
-        <v>2538000</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5146000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1940000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1891000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1932000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1773000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3474000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1796000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1862000</v>
       </c>
-      <c r="I10" s="3">
-        <v>1766000</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3546000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E12" s="3">
         <v>270000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>271000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>260000</v>
       </c>
-      <c r="G12" s="3">
-        <v>495000</v>
-      </c>
       <c r="H12" s="3">
+        <v>257000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>238000</v>
+      </c>
+      <c r="J12" s="3">
         <v>225000</v>
       </c>
-      <c r="I12" s="3">
-        <v>200000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>391000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4148000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4161000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3971000</v>
       </c>
-      <c r="G17" s="3">
-        <v>7687000</v>
-      </c>
       <c r="H17" s="3">
+        <v>3853000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3834000</v>
+      </c>
+      <c r="J17" s="3">
         <v>3862000</v>
       </c>
-      <c r="I17" s="3">
-        <v>3652000</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7276000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E18" s="3">
         <v>559000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>777000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>605000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1140000</v>
-      </c>
       <c r="H18" s="3">
+        <v>631000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>509000</v>
+      </c>
+      <c r="J18" s="3">
         <v>727000</v>
       </c>
-      <c r="I18" s="3">
-        <v>652000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1416000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,168 +1076,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E20" s="3">
         <v>123000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="3">
-        <v>48000</v>
-      </c>
       <c r="H20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
-        <v>34000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>52000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E21" s="3">
         <v>839000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>934000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>784000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1504000</v>
-      </c>
       <c r="H21" s="3">
+        <v>808000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>696000</v>
+      </c>
+      <c r="J21" s="3">
         <v>915000</v>
       </c>
-      <c r="I21" s="3">
-        <v>841000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1784000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E22" s="3">
         <v>136000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
-        <v>16000</v>
-      </c>
       <c r="H22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E23" s="3">
         <v>546000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>718000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>622000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1172000</v>
-      </c>
       <c r="H23" s="3">
+        <v>639000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>533000</v>
+      </c>
+      <c r="J23" s="3">
         <v>755000</v>
       </c>
-      <c r="I23" s="3">
-        <v>676000</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1444000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E24" s="3">
         <v>163000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>151000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>128000</v>
       </c>
-      <c r="G24" s="3">
-        <v>284000</v>
-      </c>
       <c r="H24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>131000</v>
+      </c>
+      <c r="J24" s="3">
         <v>179000</v>
       </c>
-      <c r="I24" s="3">
-        <v>160000</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>261000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E26" s="3">
         <v>383000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>567000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>494000</v>
       </c>
-      <c r="G26" s="3">
-        <v>888000</v>
-      </c>
       <c r="H26" s="3">
+        <v>486000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>402000</v>
+      </c>
+      <c r="J26" s="3">
         <v>576000</v>
       </c>
-      <c r="I26" s="3">
-        <v>516000</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1183000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E27" s="3">
         <v>372000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>548000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>488000</v>
       </c>
-      <c r="G27" s="3">
-        <v>862000</v>
-      </c>
       <c r="H27" s="3">
+        <v>473000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>389000</v>
+      </c>
+      <c r="J27" s="3">
         <v>564000</v>
       </c>
-      <c r="I27" s="3">
-        <v>503000</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1162000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,40 +1389,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>6000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>12000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>11000</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>7000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-123000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-19000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-48000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-52000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E33" s="3">
         <v>372000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>554000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>488000</v>
       </c>
-      <c r="G33" s="3">
-        <v>874000</v>
-      </c>
       <c r="H33" s="3">
+        <v>485000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>389000</v>
+      </c>
+      <c r="J33" s="3">
         <v>564000</v>
       </c>
-      <c r="I33" s="3">
-        <v>514000</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1169000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E35" s="3">
         <v>372000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>554000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>488000</v>
       </c>
-      <c r="G35" s="3">
-        <v>874000</v>
-      </c>
       <c r="H35" s="3">
+        <v>485000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>389000</v>
+      </c>
+      <c r="J35" s="3">
         <v>564000</v>
       </c>
-      <c r="I35" s="3">
-        <v>514000</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1169000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1706,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2327000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1445000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>525000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,26 +1774,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4441000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4387000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4301000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3990000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4141000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,26 +1809,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2264000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2256000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2155000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2200000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2237000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,26 +1844,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E45" s="3">
         <v>634000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>417000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>588000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>505000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,26 +1879,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9240000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9604000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8318000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7278000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7408000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,26 +1949,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2327000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2314000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2080000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2161000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,26 +1984,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14352000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14418000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14333000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14365000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14520000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,26 +2089,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6362000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6288000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2574000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2344000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2375000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2159,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32311000</v>
+      </c>
+      <c r="E54" s="3">
         <v>32637000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27539000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26067000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26464000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,26 +2226,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2835000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2977000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2944000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2687000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2702000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,17 +2271,17 @@
         <v>5000</v>
       </c>
       <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,26 +2294,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4741000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5254000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4232000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3936000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3985000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2329,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7581000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8236000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7191000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6635000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6693000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,26 +2364,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10233000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10234000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8234000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,26 +2399,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7174000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7270000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2522000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2325000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2467000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2539,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25209000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25947000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18182000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9208000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9433000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2729,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E72" s="3">
         <v>185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11235000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18801000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18680000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +2869,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7102000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6690000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9357000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16859000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17031000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
-        <v>44469</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E81" s="3">
         <v>372000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>554000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>488000</v>
       </c>
-      <c r="G81" s="3">
-        <v>874000</v>
-      </c>
       <c r="H81" s="3">
+        <v>485000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>389000</v>
+      </c>
+      <c r="J81" s="3">
         <v>564000</v>
       </c>
-      <c r="I81" s="3">
-        <v>514000</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1169000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>157000</v>
+        <v>156000</v>
       </c>
       <c r="E83" s="3">
         <v>157000</v>
       </c>
       <c r="F83" s="3">
+        <v>157000</v>
+      </c>
+      <c r="G83" s="3">
         <v>160000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>157000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>159000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K83" s="3">
         <v>316000</v>
       </c>
-      <c r="H83" s="3">
-        <v>154000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>155000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>316000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E89" s="3">
         <v>468000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1042000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>622000</v>
       </c>
-      <c r="G89" s="3">
-        <v>449000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>468000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3">
-        <v>578000</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1040000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-143000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-159000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-266000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-95000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-185000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1532000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-145000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="E100" s="3">
         <v>673000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-505000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-280000</v>
-      </c>
       <c r="H100" s="3">
+        <v>140000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-420000</v>
+      </c>
+      <c r="J100" s="3">
         <v>1401000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-585000</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1079000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-15000</v>
-      </c>
       <c r="H101" s="3">
-        <v>-11000</v>
+        <v>-12000</v>
       </c>
       <c r="I101" s="3">
-        <v>-12000</v>
+        <v>-3000</v>
       </c>
       <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>-11000</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-389000</v>
+      </c>
+      <c r="E102" s="3">
         <v>883000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>947000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-31000</v>
-      </c>
       <c r="H102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-153000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-103000</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-195000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GEHC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4817000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4707000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4938000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4576000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4484000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4343000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4589000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8692000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2887000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2877000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2816000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3006000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2803000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2688000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2665000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2727000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5146000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1940000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1891000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1932000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1773000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1796000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1678000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1862000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3546000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E12" s="3">
         <v>298000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>270000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>271000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>260000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>257000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>238000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>225000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>391000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4205000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4247000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4148000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4161000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3971000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3853000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3834000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3862000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7276000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E18" s="3">
         <v>570000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>559000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>777000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>605000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>631000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>509000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>727000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1416000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E20" s="3">
         <v>137000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>123000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>28000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E21" s="3">
         <v>863000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>839000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>934000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>784000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>808000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>696000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>915000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1784000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E22" s="3">
         <v>137000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>136000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E23" s="3">
         <v>570000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>546000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>718000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>622000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>639000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>533000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>755000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1444000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E24" s="3">
         <v>137000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>163000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>151000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>128000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>153000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>131000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>179000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>261000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E26" s="3">
         <v>433000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>383000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>567000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>494000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>486000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>402000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>576000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1183000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E27" s="3">
         <v>418000</v>
       </c>
-      <c r="E27" s="3">
-        <v>372000</v>
-      </c>
       <c r="F27" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G27" s="3">
         <v>548000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>488000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>473000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>389000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>564000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1162000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,43 +1450,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>6000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>12000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>7000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-137000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-123000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-28000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E33" s="3">
         <v>418000</v>
       </c>
-      <c r="E33" s="3">
-        <v>372000</v>
-      </c>
       <c r="F33" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G33" s="3">
         <v>554000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>488000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>485000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>389000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>564000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1169000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E35" s="3">
         <v>418000</v>
       </c>
-      <c r="E35" s="3">
-        <v>372000</v>
-      </c>
       <c r="F35" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G35" s="3">
         <v>554000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>488000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>485000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>389000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>564000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1169000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2418000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1939000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2327000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1445000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>525000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4438000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4441000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4387000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4301000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3990000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4141000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,29 +1905,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2264000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2256000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2155000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2200000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2237000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E45" s="3">
         <v>596000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>634000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>417000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>588000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>505000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9468000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9240000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9604000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8318000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7278000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7408000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,29 +2057,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2355000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2357000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2327000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2314000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2080000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2161000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,29 +2095,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14246000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14352000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14418000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14333000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14365000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14520000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2209,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6313000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6362000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6288000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2574000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2344000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2375000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32382000</v>
+      </c>
+      <c r="E54" s="3">
         <v>32311000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32637000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27539000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26067000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26464000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2835000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2977000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2944000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2687000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2702000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,29 +2393,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
         <v>5000</v>
       </c>
       <c r="F58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4784000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4741000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5254000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4232000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3936000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3985000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7565000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7581000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8236000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7191000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6635000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6693000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,29 +2507,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10253000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10233000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10234000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8234000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2402,29 +2545,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7261000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7174000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7270000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2522000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2325000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2467000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25251000</v>
+      </c>
+      <c r="E66" s="3">
         <v>25209000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25947000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18182000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9208000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9433000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E72" s="3">
         <v>576000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>185000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11235000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18801000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18680000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7131000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7102000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6690000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9357000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16859000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17031000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E81" s="3">
         <v>418000</v>
       </c>
-      <c r="E81" s="3">
-        <v>372000</v>
-      </c>
       <c r="F81" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G81" s="3">
         <v>554000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>488000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>485000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>389000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>564000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1169000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E83" s="3">
         <v>156000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>157000</v>
       </c>
       <c r="F83" s="3">
         <v>157000</v>
       </c>
       <c r="G83" s="3">
+        <v>157000</v>
+      </c>
+      <c r="H83" s="3">
         <v>160000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>157000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>159000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>154000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>316000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-67000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>468000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1042000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>622000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>468000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1040000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-143000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-84000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-266000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-95000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-118000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-85000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1532000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-145000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,13 +3680,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-14000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-227000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>673000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-505000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>140000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-420000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1401000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1079000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-11000</v>
       </c>
       <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>-11000</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-389000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>883000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>947000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-55000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-153000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-195000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
